--- a/Mvc_Schedule/Content/Excel/template_1.xlsx
+++ b/Mvc_Schedule/Content/Excel/template_1.xlsx
@@ -1566,8 +1566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W79"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A27" zoomScale="25" zoomScaleNormal="75" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="25" zoomScaleNormal="75" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13:R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
